--- a/data/transcript_norm.xlsx
+++ b/data/transcript_norm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/05 CapStone/Starbucks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD55B0C-9E8D-4543-A6B5-24AAA717DFD5}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424022D8-EB7C-45B3-8821-465652E3A742}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -570,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -831,13 +830,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="discount"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/transcript_norm.xlsx
+++ b/data/transcript_norm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/05 CapStone/Starbucks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{424022D8-EB7C-45B3-8821-465652E3A742}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB19C1D-1A7D-4FB1-8CD8-D1E3EE3991DD}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/transcript_norm.xlsx
+++ b/data/transcript_norm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/05 CapStone/Starbucks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB19C1D-1A7D-4FB1-8CD8-D1E3EE3991DD}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_08B51184DD79720E6235547658C7E6FFA48D9F43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3C0B7A7-9CA7-4C8B-9EA1-A829208F827C}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,6 +231,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -519,7 +523,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
